--- a/excel_workbooks/bimonthly_average_daily_ridership_per_station.xlsx
+++ b/excel_workbooks/bimonthly_average_daily_ridership_per_station.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="260" windowWidth="24880" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,11 +239,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2053404024"/>
-        <c:axId val="-2053449272"/>
+        <c:axId val="-2106382104"/>
+        <c:axId val="-2053971688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2053404024"/>
+        <c:axId val="-2106382104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -252,7 +252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2053449272"/>
+        <c:crossAx val="-2053971688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -260,7 +260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2053449272"/>
+        <c:axId val="-2053971688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13000.0"/>
@@ -293,7 +293,7 @@
                     <a:latin typeface="Arial"/>
                     <a:cs typeface="Arial"/>
                   </a:rPr>
-                  <a:t> Turnstile Fares Per Station</a:t>
+                  <a:t> Throughput Per Top 12 Station</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:latin typeface="Arial"/>
@@ -306,8 +306,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.182994313210849"/>
-              <c:y val="0.858333333333333"/>
+              <c:x val="0.23689766706671"/>
+              <c:y val="0.894304650767575"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -316,7 +316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2053404024"/>
+        <c:crossAx val="-2106382104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000.0"/>
@@ -327,6 +327,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -345,10 +350,10 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -695,7 +700,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
